--- a/backend/uploads/moneglisedata.xlsx
+++ b/backend/uploads/moneglisedata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="263">
   <si>
     <t>id</t>
   </si>
@@ -512,6 +512,38 @@
 Ny Birao AMF Ny ANTSO</t>
   </si>
   <si>
+    <t>EB du 25/06/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matthieu 2. 1-12
+1 Jésus étant né à Bethlehem en Judée, au temps du roi Hérode, voici des mages d’Orient arrivèrent à Jérusalem, 2 et dirent : Où est le roi des Juifs qui vient de naître ? car nous avons vu son étoile en Orient, et nous sommes venus pour l’adorer. 3 Le roi Hérode, ayant appris cela, fut troublé, et tout Jérusalem avec lui.
+4 Il assembla tous les principaux sacrificateurs et les scribes du peuple, et il s’informa auprès d’eux où devait naître le Christ. 5 Ils lui dirent : A Bethlehem en Judée ; car voici ce qui a été écrit par le prophète :
+6 Et toi, Bethlehem, terre de Juda, Tu n’es certes pas la moindre entre les principales villes de Juda, Car de toi sortira un chef Qui paîtra Israël, mon peuple. 7 Alors Hérode fit appeler en secret les mages, et s’enquit soigneusement auprès d’eux depuis combien de temps l’étoile brillait. 8 Puis il les envoya à Bethlehem, en disant : Allez, et prenez des informations exactes sur le petit enfant ; quand vous l’aurez trouvé, faites-le-moi savoir, afin que j’aille aussi moi-même l’adorer. 9 Après avoir entendu le roi, ils partirent. Et voici, l’étoile qu’ils avaient vue en Orient marchait devant eux jusqu’à ce qu’étant arrivée au-dessus du lieu où était le petit enfant, elle s’arrêta. 10 Quand ils aperçurent l’étoile, ils furent saisis d’une très grande joie. 11 Ils entrèrent dans la maison, virent le petit enfant avec Marie, sa mère, se prosternèrent et l’adorèrent ; ils ouvrirent ensuite leurs trésors, et lui offrirent en présent de l’or, de l’encens et de la myrrhe. 12 Puis, divinement avertis en songe de ne pas retourner vers Hérode, ils regagnèrent leur pays par un autre chemin.
+QUESTIONS
+     1. Faire le plan.
+     2. Que sont les mages ?​
+a. Pourquoi sont-ils à Jérusalem ?
+          b. Comment ont-ils su la naissance de Jésus ? Comment l’appellent-ils ? Commentez. 
+     3. Qui est Hérode ?
+         a. Comment a-t-il pris la nouvelle ? Pourquoi d’après vous ? (v.3)
+         b. Qui partage le même sentiment que lui ? Pourquoi d’après vous ? (v.3)
+         c. A la naissance de quel personnage pensait-il ? Commentez.
+         d. Auprès de qui se renseigne-t-il ? A-t-il eu la réponse ?
+         e. Quelle raison évoque le roi pour tenter d’obtenir des renseignements auprès des mages ? Est-il             sincère ?
+      4. Relevez les sentiments et les gestes des mages envers Jésus.
+          a. Comparez l’attitude des sages qui viennent de l’Orient avec celle des sages (scribes et prêtres) du               peuple de Dieu. Commentez.
+          b. Qu’en est-il du nôtre envers le Christ ?
+     5. Comment les mages ont-ils été conduits avant leur rencontre avec le Christ ? Comment sont-ils          maintenant avertis après cette rencontre ? (v.12) Commentez.
+     6. Applications.
+ </t>
+  </si>
+  <si>
+    <t>Fpma-melun</t>
+  </si>
+  <si>
+    <t>Fiangonana</t>
+  </si>
+  <si>
     <t>heure</t>
   </si>
   <si>
@@ -1128,8 +1160,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="D/M/YYYY"/>
+    <numFmt numFmtId="165" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -1159,6 +1192,11 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Abadi Extra Light"/>
@@ -1178,11 +1216,6 @@
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1198,7 +1231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1212,15 +1245,21 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2143,7 +2182,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="7">
+        <v>29.0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" s="8">
+        <v>45468.0</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="32" ht="15.75" customHeight="1"/>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -3140,2533 +3198,2533 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="B1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H1" s="7" t="s">
+      <c r="E1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>62</v>
+      <c r="I1" s="9" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="7">
+      <c r="B2" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="9">
         <v>16.0</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="7" t="s">
+      <c r="D4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="F4" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="H4" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="7" t="s">
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="7">
+      <c r="B5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="9">
         <v>18.0</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G20" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="C22" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F22" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="C23" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="8" t="s">
+      <c r="D23" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="7">
+      <c r="B24" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F27" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F29" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F31" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F32" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="9">
+        <v>13.0</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F37" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F38" s="9">
+        <v>20.0</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F40" s="9">
+        <v>27.0</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="I40" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F41" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="I41" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F42" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F43" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="I44" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="I45" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F46" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="I46" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="I47" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F48" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I48" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F49" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I49" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I50" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="I51" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F52" s="9">
+        <v>8.0</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H52" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="I52" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="9">
+        <v>10.0</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H53" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="I53" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="9">
+        <v>15.0</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H54" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F55" s="9">
+        <v>17.0</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H55" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="I55" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F56" s="9">
+        <v>22.0</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H56" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I56" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="9">
+        <v>24.0</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58" s="9">
+        <v>29.0</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="I58" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F59" s="9">
+        <v>31.0</v>
+      </c>
+      <c r="G59" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="H59" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="I59" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D60" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F60" s="9">
+        <v>5.0</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="I60" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F61" s="9">
+        <v>7.0</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="I61" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F62" s="9">
+        <v>12.0</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="I62" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C63" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F63" s="9">
+        <v>14.0</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H63" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="I63" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="9">
+        <v>19.0</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="I64" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F65" s="9">
+        <v>21.0</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H65" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="I65" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="9">
+        <v>26.0</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H66" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="I66" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="9">
+        <v>28.0</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I67" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H68" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I68" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C69" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F69" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I69" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D70" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F70" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="I70" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D71" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F71" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="I71" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F72" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C73" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I73" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C74" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F74" s="9">
         <v>23.0</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G74" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="I74" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="9">
+        <v>25.0</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="C76" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D76" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F76" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="I76" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E77" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="7" t="s">
+      <c r="F77" s="9">
+        <v>4.0</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H77" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="I77" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C78" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D78" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E78" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="F78" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H78" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="I78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F5" s="7">
+      <c r="B79" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C79" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F79" s="9">
+        <v>11.0</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H79" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I79" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C80" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F80" s="9">
+        <v>16.0</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C81" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D81" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F81" s="9">
+        <v>18.0</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="I81" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C82" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D82" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F82" s="9">
+        <v>23.0</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H82" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="I82" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F83" s="9">
         <v>25.0</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G83" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="I83" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I5" s="7" t="s">
+      <c r="C84" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D84" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F84" s="9">
+        <v>30.0</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="D85" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="B86" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="C86" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D86" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="E86" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="F86" s="9">
+        <v>6.0</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H86" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="I86" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I7" s="7" t="s">
+      <c r="B87" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C87" s="9" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="8" t="s">
+      <c r="D87" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F9" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="7">
-        <v>28.0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F23" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="7">
+      <c r="E87" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F87" s="9">
         <v>8.0</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F27" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F32" s="7">
-        <v>29.0</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F33" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F34" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F35" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="7">
-        <v>13.0</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F38" s="7">
-        <v>20.0</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F39" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I39" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F40" s="7">
-        <v>27.0</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="I40" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F41" s="7">
-        <v>29.0</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="I42" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B43" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F43" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F45" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I45" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F46" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="I46" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F47" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F48" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="I48" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B49" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C49" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="7">
-        <v>26.0</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="I49" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I50" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F51" s="7">
-        <v>3.0</v>
-      </c>
-      <c r="G51" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I51" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E52" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F52" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="I52" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F53" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E54" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="7">
-        <v>15.0</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I54" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C55" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F55" s="7">
-        <v>17.0</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="I55" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E56" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F56" s="7">
-        <v>22.0</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="I56" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E57" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F57" s="7">
-        <v>24.0</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I57" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="7">
-        <v>29.0</v>
-      </c>
-      <c r="G58" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I58" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B59" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F59" s="7">
-        <v>31.0</v>
-      </c>
-      <c r="G59" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="I59" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E60" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F60" s="7">
-        <v>5.0</v>
-      </c>
-      <c r="G60" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D61" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F61" s="7">
-        <v>7.0</v>
-      </c>
-      <c r="G61" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="I61" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D62" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E62" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="7">
-        <v>12.0</v>
-      </c>
-      <c r="G62" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="I62" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D63" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F63" s="7">
-        <v>14.0</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="I63" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E64" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F64" s="7">
-        <v>19.0</v>
-      </c>
-      <c r="G64" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="I64" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="7">
-        <v>21.0</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H65" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I65" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="7">
-        <v>26.0</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D67" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E67" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F67" s="7">
-        <v>28.0</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E68" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F68" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G68" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="I68" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F69" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="I69" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D70" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F70" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="G70" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I70" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B71" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D72" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E72" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F72" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="G72" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="I72" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B73" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D73" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E73" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F73" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="I73" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F74" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="G74" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="I74" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B75" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D75" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E75" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F75" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="I75" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F76" s="7">
-        <v>2.0</v>
-      </c>
-      <c r="G76" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B77" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D77" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E77" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F77" s="7">
-        <v>4.0</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I77" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F78" s="7">
-        <v>9.0</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I78" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E79" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F79" s="7">
-        <v>11.0</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="I79" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F80" s="7">
-        <v>16.0</v>
-      </c>
-      <c r="G80" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="I80" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F81" s="7">
-        <v>18.0</v>
-      </c>
-      <c r="G81" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I81" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F82" s="7">
-        <v>23.0</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="I82" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B83" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E83" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F83" s="7">
-        <v>25.0</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I83" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F84" s="7">
-        <v>30.0</v>
-      </c>
-      <c r="G84" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="I84" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F85" s="7">
-        <v>1.0</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="I85" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F86" s="7">
-        <v>6.0</v>
-      </c>
-      <c r="G86" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F87" s="7">
-        <v>8.0</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H87" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="I87" s="7" t="s">
-        <v>77</v>
+      <c r="G87" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H87" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="D88" s="10"/>
+      <c r="D88" s="12"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="D89" s="10"/>
+      <c r="D89" s="12"/>
     </row>
     <row r="90" ht="15.75" customHeight="1"/>
     <row r="91" ht="15.75" customHeight="1"/>
@@ -6604,64 +6662,64 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11">
+      <c r="A2" s="13">
         <v>1.0</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>175</v>
+      <c r="B2" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11">
+      <c r="A3" s="13">
         <v>2.0</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>178</v>
+      <c r="B3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="13">
         <v>3.0</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>179</v>
+      <c r="B4" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>182</v>
+      <c r="B5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -7685,152 +7743,152 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>62</v>
+      <c r="E1" s="13" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="11">
+      <c r="A2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" s="13">
         <v>0.0</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>187</v>
+      <c r="E2" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="11">
+      <c r="A3" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="13">
         <v>1.0</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>190</v>
+      <c r="E3" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="13">
+        <v>2.0</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="D5" s="13">
+        <v>4.0</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="D4" s="11">
-        <v>2.0</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="D6" s="13">
+        <v>3.0</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="11">
-        <v>4.0</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D6" s="11">
-        <v>3.0</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>190</v>
-      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="D7" s="11">
+      <c r="A7" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D7" s="13">
         <v>100.0</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>190</v>
+      <c r="E7" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D8" s="11">
+      <c r="A8" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D8" s="13">
         <v>101.0</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>190</v>
+      <c r="E8" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D9" s="11">
+      <c r="A9" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="13">
         <v>5.0</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>190</v>
+      <c r="E9" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="D10" s="11">
+      <c r="A10" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="13">
         <v>6.0</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>190</v>
+      <c r="E10" s="13" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1"/>
@@ -8851,579 +8909,579 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>204</v>
-      </c>
-      <c r="C1" s="11" t="s">
+      <c r="A1" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>205</v>
+      <c r="E1" s="13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>206</v>
+      <c r="A2" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="11" t="s">
+      <c r="B36" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="C36" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>218</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>235</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>239</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>245</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>249</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="11" t="s">
-        <v>217</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>206</v>
+      <c r="D36" s="13" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1"/>

--- a/backend/uploads/moneglisedata.xlsx
+++ b/backend/uploads/moneglisedata.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9ED992-F73F-484E-BC16-745D17BCFFAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987C285-567E-4F8A-9A0E-BF87297A2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1115,13 +1115,13 @@
     <t>Sampana Zava-maneno</t>
   </si>
   <si>
-    <t>&lt;p&gt;"Matthieu 2. 1-12&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;1 J&amp;eacute;sus &amp;eacute;tant n&amp;eacute; &amp;agrave; Bethlehem en Jud&amp;eacute;e, au temps du roi H&amp;eacute;rode, voici des mages d&amp;rsquo;Orient arriv&amp;egrave;rent &amp;agrave; J&amp;eacute;rusalem, 2 et dirent : O&amp;ugrave; est le roi des Juifs qui vient de na&amp;icirc;tre ? car nous avons vu son &amp;eacute;toile en Orient, et nous sommes venus pour l&amp;rsquo;adorer. 3 Le roi H&amp;eacute;rode, ayant appris cela, fut troubl&amp;eacute;, et tout J&amp;eacute;rusalem avec lui.&lt;br /&gt;4 Il assembla tous les principaux sacrificateurs et les scribes du peuple, et il s&amp;rsquo;informa aupr&amp;egrave;s d&amp;rsquo;eux o&amp;ugrave; devait na&amp;icirc;tre le Christ. 5 Ils lui dirent : A Bethlehem en Jud&amp;eacute;e ; car voici ce qui a &amp;eacute;t&amp;eacute; &amp;eacute;crit par le proph&amp;egrave;te :&lt;br /&gt;6 Et toi, Bethlehem, terre de Juda, Tu n&amp;rsquo;es certes pas la moindre entre les principales villes de Juda, Car de toi sortira un chef Qui pa&amp;icirc;tra Isra&amp;euml;l, mon peuple. 7 Alors H&amp;eacute;rode fit appeler en secret les mages, et s&amp;rsquo;enquit soigneusement aupr&amp;egrave;s d&amp;rsquo;eux depuis combien de temps l&amp;rsquo;&amp;eacute;toile brillait. 8 Puis il les envoya &amp;agrave; Bethlehem, en disant : Allez, et prenez des informations exactes sur le petit enfant ; quand vous l&amp;rsquo;aurez trouv&amp;eacute;, faites-le-moi savoir, afin que j&amp;rsquo;aille aussi moi-m&amp;ecirc;me l&amp;rsquo;adorer. 9 Apr&amp;egrave;s avoir entendu le roi, ils partirent. Et voici, l&amp;rsquo;&amp;eacute;toile qu&amp;rsquo;ils avaient vue en Orient marchait devant eux jusqu&amp;rsquo;&amp;agrave; ce qu&amp;rsquo;&amp;eacute;tant arriv&amp;eacute;e au-dessus du lieu o&amp;ugrave; &amp;eacute;tait le petit enfant, elle s&amp;rsquo;arr&amp;ecirc;ta. 10 Quand ils aper&amp;ccedil;urent l&amp;rsquo;&amp;eacute;toile, ils furent saisis d&amp;rsquo;une tr&amp;egrave;s grande joie. 11 Ils entr&amp;egrave;rent dans la maison, virent le petit enfant avec Marie, sa m&amp;egrave;re, se prostern&amp;egrave;rent et l&amp;rsquo;ador&amp;egrave;rent ; ils ouvrirent ensuite leurs tr&amp;eacute;sors, et lui offrirent en pr&amp;eacute;sent de l&amp;rsquo;or, de l&amp;rsquo;encens et de la myrrhe. 12 Puis, divinement avertis en songe de ne pas retourner vers H&amp;eacute;rode, ils regagn&amp;egrave;rent leur pays par un autre chemin.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;QUESTIONS&lt;br /&gt;&lt;br /&gt;&lt;br /&gt; 1. Faire le plan.&lt;br /&gt;&lt;br /&gt; 2. Que sont les mages ?&lt;br /&gt;&lt;br /&gt;a. Pourquoi sont-ils &amp;agrave; J&amp;eacute;rusalem ?&lt;br /&gt; b. Comment ont-ils su la naissance de J&amp;eacute;sus ? Comment l&amp;rsquo;appellent-ils ? Commentez. &lt;br /&gt;&lt;br /&gt; 3. Qui est H&amp;eacute;rode ?&lt;br /&gt;&lt;br /&gt; a. Comment a-t-il pris la nouvelle ? Pourquoi d&amp;rsquo;apr&amp;egrave;s vous ? (v.3)&lt;br /&gt; b. Qui partage le m&amp;ecirc;me sentiment que lui ? Pourquoi d&amp;rsquo;apr&amp;egrave;s vous ? (v.3)&lt;br /&gt; c. A la naissance de quel personnage pensait-il ? Commentez.&lt;br /&gt; d. Aupr&amp;egrave;s de qui se renseigne-t-il ? A-t-il eu la r&amp;eacute;ponse ?&lt;br /&gt; e. Quelle raison &amp;eacute;voque le roi pour tenter d&amp;rsquo;obtenir des renseignements aupr&amp;egrave;s des mages ? Est-il sinc&amp;egrave;re ?&lt;br /&gt;&lt;br /&gt; 4. Relevez les sentiments et les gestes des mages envers J&amp;eacute;sus.&lt;br /&gt; a. Comparez l&amp;rsquo;attitude des sages qui viennent de l&amp;rsquo;Orient avec celle des sages (scribes et pr&amp;ecirc;tres) du peuple de Dieu. Commentez.&lt;br /&gt; b. Qu&amp;rsquo;en est-il du n&amp;ocirc;tre envers le Christ ?&lt;br /&gt;&lt;br /&gt; 5. Comment les mages ont-ils &amp;eacute;t&amp;eacute; conduits avant leur rencontre avec le Christ ? Comment sont-ils maintenant avertis apr&amp;egrave;s cette rencontre ? (v.12) Commentez.&lt;br /&gt;&lt;br /&gt; 6. Applications.&lt;br /&gt; "&lt;/p&gt;</t>
-  </si>
-  <si>
     <t>&lt;p&gt;Chers fr&amp;egrave;res et s&amp;oelig;urs en Christ,&lt;br /&gt; &lt;br /&gt; C&amp;rsquo;est avec grand plaisir que Le sampana Sekoly Alahady&amp;nbsp; de la FPMA MELUN vous&amp;nbsp; invite &amp;agrave; son dimanche le dimanche 30 JUIN 2024 &amp;agrave; 10h30.&lt;br /&gt; &lt;br /&gt; Une vente de barquettes &amp;agrave; 10 euros sera organis&amp;eacute;e en fin de culte dont les b&amp;eacute;n&amp;eacute;fices serviront &amp;agrave; financer les futurs projets de la section.&lt;br /&gt; &amp;nbsp;&lt;br /&gt; &lt;br /&gt; Nous esp&amp;eacute;rons vous voir nombreux pour porter en pri&amp;egrave;re notre section et pour louer le Seigneur ensemble&lt;br /&gt; &lt;br /&gt; Que la paix du Christ soit sur vous,&lt;br /&gt; &lt;br /&gt; Fraternellement,&lt;br /&gt; &lt;br /&gt; Monitrices&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;p&gt;Matthieu 1. 18-25&lt;br /&gt; &lt;br /&gt; 18 Voici de quelle mani&amp;egrave;re arriva la naissance de J&amp;eacute;sus-Christ. Marie, sa m&amp;egrave;re, ayant &amp;eacute;t&amp;eacute; fianc&amp;eacute;e &amp;agrave; Joseph, se&lt;br /&gt; trouva enceinte, par la vertu du Saint-Esprit, avant qu&amp;rsquo;ils eussent habit&amp;eacute; ensemble. 19 Joseph, son &amp;eacute;poux, qui&lt;br /&gt; &amp;eacute;tait un homme de bien et qui ne voulait pas la diffamer, se proposa de rompre secr&amp;egrave;tement avec elle. 20&lt;br /&gt; Comme il y pensait, voici, l&amp;rsquo;Ange du Seigneur lui apparut en songe, et dit : Joseph, fils de David, ne crains&lt;br /&gt; pas de prendre avec toi Marie, ta femme, car l&amp;rsquo;enfant qu&amp;rsquo;elle a con&amp;ccedil;u vient du Saint-Esprit ; 21 elle&lt;br /&gt; enfantera un fils, et tu lui donneras le nom de J&amp;eacute;sus; c&amp;rsquo;est lui qui sauvera son peuple de ses p&amp;eacute;ch&amp;eacute;s. 22 Tout&lt;br /&gt; cela arriva afin que s&amp;rsquo;accompl&amp;icirc;t ce que le Seigneur avait annonc&amp;eacute; par le proph&amp;egrave;te : 23 Voici, la vierge sera&lt;br /&gt; enceinte, elle enfantera un fils, et on lui donnera le nom d&amp;rsquo;Emmanuel, ce qui signifie Dieu avec nous. 24&lt;br /&gt; Joseph s&amp;rsquo;&amp;eacute;tant r&amp;eacute;veill&amp;eacute; fit ce que l&amp;rsquo;Ange du Seigneur lui avait ordonn&amp;eacute;, et il prit sa femme avec lui. 25 Mais&lt;br /&gt; il ne la connut point jusqu&amp;rsquo;&amp;agrave; ce qu&amp;rsquo;elle e&amp;ucirc;t enfant&amp;eacute; un fils, auquel il donna le nom de J&amp;eacute;sus.&lt;br /&gt; &lt;br /&gt; QUESTIONS&lt;br /&gt; &lt;br /&gt; 1. Au verset 18, quel &amp;laquo;&amp;nbsp;scandale&amp;nbsp;&amp;raquo; rapporte Matthieu ? Que signifient les fian&amp;ccedil;ailles&amp;nbsp;?&lt;br /&gt; .&lt;br /&gt; 2. Au verset 19, par quel terme&amp;nbsp;Matthieu d&amp;eacute;signe-t-il Joseph par rapport &amp;agrave; Marie ? Commentez.&lt;br /&gt; 2.1. Pourquoi Joseph a-t-il voulu rompre ?&lt;br /&gt; 2.2. Comment pensait-il traiter le probl&amp;egrave;me&amp;nbsp;? Commentez.&lt;br /&gt; .&lt;br /&gt; 3. Qui prend l&amp;rsquo;initiative dans la conception de J&amp;eacute;sus&amp;nbsp;?&lt;br /&gt; 3.1. Comparer la naissance de J&amp;eacute;sus avec la naissance de serviteurs de Dieu qui naquirent &amp;agrave; la suite&lt;br /&gt; &lt;br /&gt; d&amp;rsquo;une intervention divine. (Ge. 18.11-14 ; 1S.1.8-20 ; Lu.1.5-25 ; Mt.1.25).&lt;br /&gt; .&lt;br /&gt; 3.2. Pourquoi J&amp;eacute;sus a-t-il pris corps en la Vierge Marie ? (v.22. Cf. Gn 3.13-15 ; Lc 1.28-35 ; Hb 2.14-&lt;br /&gt; &lt;br /&gt; 18 ; Co 2.9-15 ; voir aussi: Jn.3.16).&lt;br /&gt; &lt;br /&gt; 4. Matthieu s&amp;rsquo;appuie sur Es 7.14 pour fonder l&amp;rsquo;accomplissement de la naissance de J&amp;eacute;sus. D&amp;rsquo;apr&amp;egrave;s vous,&lt;br /&gt; pourquoi Joseph n&amp;rsquo;a-t-il pas donn&amp;eacute; le nom d&amp;rsquo;Emmanuel &amp;agrave; son fils&amp;nbsp;?&lt;br /&gt; 5. Qu&amp;rsquo;a fait Joseph devant la parole qu&amp;rsquo;il a re&amp;ccedil;ue&amp;nbsp;? (v.24&amp;nbsp;; v.25)&lt;br /&gt; 6. Applications.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Matthieu 2. 1-12&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;1 J&amp;eacute;sus &amp;eacute;tant n&amp;eacute; &amp;agrave; Bethlehem en Jud&amp;eacute;e, au temps du roi H&amp;eacute;rode, voici des mages d&amp;rsquo;Orient arriv&amp;egrave;rent &amp;agrave; J&amp;eacute;rusalem, 2 et dirent : O&amp;ugrave; est le roi des Juifs qui vient de na&amp;icirc;tre ? car nous avons vu son &amp;eacute;toile en Orient, et nous sommes venus pour l&amp;rsquo;adorer. 3 Le roi H&amp;eacute;rode, ayant appris cela, fut troubl&amp;eacute;, et tout J&amp;eacute;rusalem avec lui.&lt;br /&gt;4 Il assembla tous les principaux sacrificateurs et les scribes du peuple, et il s&amp;rsquo;informa aupr&amp;egrave;s d&amp;rsquo;eux o&amp;ugrave; devait na&amp;icirc;tre le Christ. 5 Ils lui dirent : A Bethlehem en Jud&amp;eacute;e ; car voici ce qui a &amp;eacute;t&amp;eacute; &amp;eacute;crit par le proph&amp;egrave;te :&lt;br /&gt;6 Et toi, Bethlehem, terre de Juda, Tu n&amp;rsquo;es certes pas la moindre entre les principales villes de Juda, Car de toi sortira un chef Qui pa&amp;icirc;tra Isra&amp;euml;l, mon peuple. 7 Alors H&amp;eacute;rode fit appeler en secret les mages, et s&amp;rsquo;enquit soigneusement aupr&amp;egrave;s d&amp;rsquo;eux depuis combien de temps l&amp;rsquo;&amp;eacute;toile brillait. 8 Puis il les envoya &amp;agrave; Bethlehem, en disant : Allez, et prenez des informations exactes sur le petit enfant ; quand vous l&amp;rsquo;aurez trouv&amp;eacute;, faites-le-moi savoir, afin que j&amp;rsquo;aille aussi moi-m&amp;ecirc;me l&amp;rsquo;adorer. 9 Apr&amp;egrave;s avoir entendu le roi, ils partirent. Et voici, l&amp;rsquo;&amp;eacute;toile qu&amp;rsquo;ils avaient vue en Orient marchait devant eux jusqu&amp;rsquo;&amp;agrave; ce qu&amp;rsquo;&amp;eacute;tant arriv&amp;eacute;e au-dessus du lieu o&amp;ugrave; &amp;eacute;tait le petit enfant, elle s&amp;rsquo;arr&amp;ecirc;ta. 10 Quand ils aper&amp;ccedil;urent l&amp;rsquo;&amp;eacute;toile, ils furent saisis d&amp;rsquo;une tr&amp;egrave;s grande joie. 11 Ils entr&amp;egrave;rent dans la maison, virent le petit enfant avec Marie, sa m&amp;egrave;re, se prostern&amp;egrave;rent et l&amp;rsquo;ador&amp;egrave;rent ; ils ouvrirent ensuite leurs tr&amp;eacute;sors, et lui offrirent en pr&amp;eacute;sent de l&amp;rsquo;or, de l&amp;rsquo;encens et de la myrrhe. 12 Puis, divinement avertis en songe de ne pas retourner vers H&amp;eacute;rode, ils regagn&amp;egrave;rent leur pays par un autre chemin.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;QUESTIONS&lt;br /&gt;&lt;br /&gt;&lt;br /&gt; 1. Faire le plan.&lt;br /&gt;&lt;br /&gt; 2. Que sont les mages ?&lt;br /&gt;&lt;br /&gt;a. Pourquoi sont-ils &amp;agrave; J&amp;eacute;rusalem ?&lt;br /&gt; b. Comment ont-ils su la naissance de J&amp;eacute;sus ? Comment l&amp;rsquo;appellent-ils ? Commentez. &lt;br /&gt;&lt;br /&gt; 3. Qui est H&amp;eacute;rode ?&lt;br /&gt;&lt;br /&gt; a. Comment a-t-il pris la nouvelle ? Pourquoi d&amp;rsquo;apr&amp;egrave;s vous ? (v.3)&lt;br /&gt; b. Qui partage le m&amp;ecirc;me sentiment que lui ? Pourquoi d&amp;rsquo;apr&amp;egrave;s vous ? (v.3)&lt;br /&gt; c. A la naissance de quel personnage pensait-il ? Commentez.&lt;br /&gt; d. Aupr&amp;egrave;s de qui se renseigne-t-il ? A-t-il eu la r&amp;eacute;ponse ?&lt;br /&gt; e. Quelle raison &amp;eacute;voque le roi pour tenter d&amp;rsquo;obtenir des renseignements aupr&amp;egrave;s des mages ? Est-il sinc&amp;egrave;re ?&lt;br /&gt;&lt;br /&gt; 4. Relevez les sentiments et les gestes des mages envers J&amp;eacute;sus.&lt;br /&gt; a. Comparez l&amp;rsquo;attitude des sages qui viennent de l&amp;rsquo;Orient avec celle des sages (scribes et pr&amp;ecirc;tres) du peuple de Dieu. Commentez.&lt;br /&gt; b. Qu&amp;rsquo;en est-il du n&amp;ocirc;tre envers le Christ ?&lt;br /&gt;&lt;br /&gt; 5. Comment les mages ont-ils &amp;eacute;t&amp;eacute; conduits avant leur rencontre avec le Christ ? Comment sont-ils maintenant avertis apr&amp;egrave;s cette rencontre ? (v.12) Commentez.&lt;br /&gt;&lt;br /&gt; 6. Applications.&lt;br /&gt; &lt;/p&gt;</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1229,7 +1229,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1448,7 +1447,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2065,7 +2064,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2086,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2147,7 +2146,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -7677,7 +7676,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7839,72 +7838,72 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" t="s">
         <v>260</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11">
         <v>7</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" t="s">
         <v>261</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12">
         <v>8</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" t="s">
         <v>262</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13">
         <v>9</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+      <c r="A14" t="s">
         <v>245</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14">
         <v>10</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" t="s">
         <v>263</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15">
         <v>11</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" t="s">
         <v>191</v>
       </c>
     </row>

--- a/backend/uploads/moneglisedata.xlsx
+++ b/backend/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D987C285-567E-4F8A-9A0E-BF87297A2A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B58463D-BA2E-4BF2-9729-AF4D4A11097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="645" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -929,9 +929,6 @@
     <t>2024-06-18T21:59:39.000Z</t>
   </si>
   <si>
-    <t>Sekoly Alahady</t>
-  </si>
-  <si>
     <t>Sampana Vehivavy Kristianina</t>
   </si>
   <si>
@@ -1122,6 +1119,9 @@
   </si>
   <si>
     <t>&lt;p&gt;Matthieu 2. 1-12&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;1 J&amp;eacute;sus &amp;eacute;tant n&amp;eacute; &amp;agrave; Bethlehem en Jud&amp;eacute;e, au temps du roi H&amp;eacute;rode, voici des mages d&amp;rsquo;Orient arriv&amp;egrave;rent &amp;agrave; J&amp;eacute;rusalem, 2 et dirent : O&amp;ugrave; est le roi des Juifs qui vient de na&amp;icirc;tre ? car nous avons vu son &amp;eacute;toile en Orient, et nous sommes venus pour l&amp;rsquo;adorer. 3 Le roi H&amp;eacute;rode, ayant appris cela, fut troubl&amp;eacute;, et tout J&amp;eacute;rusalem avec lui.&lt;br /&gt;4 Il assembla tous les principaux sacrificateurs et les scribes du peuple, et il s&amp;rsquo;informa aupr&amp;egrave;s d&amp;rsquo;eux o&amp;ugrave; devait na&amp;icirc;tre le Christ. 5 Ils lui dirent : A Bethlehem en Jud&amp;eacute;e ; car voici ce qui a &amp;eacute;t&amp;eacute; &amp;eacute;crit par le proph&amp;egrave;te :&lt;br /&gt;6 Et toi, Bethlehem, terre de Juda, Tu n&amp;rsquo;es certes pas la moindre entre les principales villes de Juda, Car de toi sortira un chef Qui pa&amp;icirc;tra Isra&amp;euml;l, mon peuple. 7 Alors H&amp;eacute;rode fit appeler en secret les mages, et s&amp;rsquo;enquit soigneusement aupr&amp;egrave;s d&amp;rsquo;eux depuis combien de temps l&amp;rsquo;&amp;eacute;toile brillait. 8 Puis il les envoya &amp;agrave; Bethlehem, en disant : Allez, et prenez des informations exactes sur le petit enfant ; quand vous l&amp;rsquo;aurez trouv&amp;eacute;, faites-le-moi savoir, afin que j&amp;rsquo;aille aussi moi-m&amp;ecirc;me l&amp;rsquo;adorer. 9 Apr&amp;egrave;s avoir entendu le roi, ils partirent. Et voici, l&amp;rsquo;&amp;eacute;toile qu&amp;rsquo;ils avaient vue en Orient marchait devant eux jusqu&amp;rsquo;&amp;agrave; ce qu&amp;rsquo;&amp;eacute;tant arriv&amp;eacute;e au-dessus du lieu o&amp;ugrave; &amp;eacute;tait le petit enfant, elle s&amp;rsquo;arr&amp;ecirc;ta. 10 Quand ils aper&amp;ccedil;urent l&amp;rsquo;&amp;eacute;toile, ils furent saisis d&amp;rsquo;une tr&amp;egrave;s grande joie. 11 Ils entr&amp;egrave;rent dans la maison, virent le petit enfant avec Marie, sa m&amp;egrave;re, se prostern&amp;egrave;rent et l&amp;rsquo;ador&amp;egrave;rent ; ils ouvrirent ensuite leurs tr&amp;eacute;sors, et lui offrirent en pr&amp;eacute;sent de l&amp;rsquo;or, de l&amp;rsquo;encens et de la myrrhe. 12 Puis, divinement avertis en songe de ne pas retourner vers H&amp;eacute;rode, ils regagn&amp;egrave;rent leur pays par un autre chemin.&lt;br /&gt;&lt;br /&gt;&lt;br /&gt;QUESTIONS&lt;br /&gt;&lt;br /&gt;&lt;br /&gt; 1. Faire le plan.&lt;br /&gt;&lt;br /&gt; 2. Que sont les mages ?&lt;br /&gt;&lt;br /&gt;a. Pourquoi sont-ils &amp;agrave; J&amp;eacute;rusalem ?&lt;br /&gt; b. Comment ont-ils su la naissance de J&amp;eacute;sus ? Comment l&amp;rsquo;appellent-ils ? Commentez. &lt;br /&gt;&lt;br /&gt; 3. Qui est H&amp;eacute;rode ?&lt;br /&gt;&lt;br /&gt; a. Comment a-t-il pris la nouvelle ? Pourquoi d&amp;rsquo;apr&amp;egrave;s vous ? (v.3)&lt;br /&gt; b. Qui partage le m&amp;ecirc;me sentiment que lui ? Pourquoi d&amp;rsquo;apr&amp;egrave;s vous ? (v.3)&lt;br /&gt; c. A la naissance de quel personnage pensait-il ? Commentez.&lt;br /&gt; d. Aupr&amp;egrave;s de qui se renseigne-t-il ? A-t-il eu la r&amp;eacute;ponse ?&lt;br /&gt; e. Quelle raison &amp;eacute;voque le roi pour tenter d&amp;rsquo;obtenir des renseignements aupr&amp;egrave;s des mages ? Est-il sinc&amp;egrave;re ?&lt;br /&gt;&lt;br /&gt; 4. Relevez les sentiments et les gestes des mages envers J&amp;eacute;sus.&lt;br /&gt; a. Comparez l&amp;rsquo;attitude des sages qui viennent de l&amp;rsquo;Orient avec celle des sages (scribes et pr&amp;ecirc;tres) du peuple de Dieu. Commentez.&lt;br /&gt; b. Qu&amp;rsquo;en est-il du n&amp;ocirc;tre envers le Christ ?&lt;br /&gt;&lt;br /&gt; 5. Comment les mages ont-ils &amp;eacute;t&amp;eacute; conduits avant leur rencontre avec le Christ ? Comment sont-ils maintenant avertis apr&amp;egrave;s cette rencontre ? (v.12) Commentez.&lt;br /&gt;&lt;br /&gt; 6. Applications.&lt;br /&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Sampana Sekoly Alahady</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C23" workbookViewId="0">
+    <sheetView topLeftCell="C23" workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -2064,7 +2064,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2085,7 +2085,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2146,7 +2146,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -7675,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7811,7 +7811,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>202</v>
+        <v>266</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>201</v>
@@ -7825,7 +7825,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>201</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>201</v>
@@ -7853,7 +7853,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>201</v>
@@ -7867,7 +7867,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>201</v>
@@ -7881,7 +7881,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>201</v>
@@ -7895,7 +7895,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>201</v>
@@ -8917,10 +8917,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>3</v>
@@ -8929,566 +8929,566 @@
         <v>6</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>209</v>
-      </c>
       <c r="D2" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>214</v>
-      </c>
       <c r="C4" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="B5" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>216</v>
-      </c>
       <c r="C5" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>219</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>221</v>
-      </c>
       <c r="C8" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>226</v>
-      </c>
       <c r="C10" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>228</v>
-      </c>
       <c r="C11" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>230</v>
-      </c>
       <c r="C12" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D13" s="7" t="s">
+      <c r="E13" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D15" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D16" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>253</v>
-      </c>
       <c r="C29" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B30" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/backend/uploads/moneglisedata.xlsx
+++ b/backend/uploads/moneglisedata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B58463D-BA2E-4BF2-9729-AF4D4A11097A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57FDA889-9A95-403E-9168-FECD44498953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="645" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="articles" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,19 @@
     <sheet name="photos" sheetId="4" r:id="rId4"/>
     <sheet name="profil" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="OEDnUwd+HazjpRYNDhzKWJIBle5tEkrncyr3uCrEP/A="/>
     </ext>
@@ -29,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1080" uniqueCount="266">
   <si>
     <t>id</t>
   </si>
@@ -1095,9 +1106,6 @@
   </si>
   <si>
     <t>Sampana sekoly alahady</t>
-  </si>
-  <si>
-    <t>RANARISOA Lisy</t>
   </si>
   <si>
     <t>Sampana Tanora Kristianina</t>
@@ -2064,7 +2072,7 @@
         <v>50</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
@@ -2085,7 +2093,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
@@ -2146,7 +2154,7 @@
         <v>55</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>56</v>
@@ -7675,7 +7683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -7811,7 +7819,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>201</v>
@@ -7839,7 +7847,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>201</v>
@@ -7853,7 +7861,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>201</v>
@@ -7867,7 +7875,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>201</v>
@@ -7895,7 +7903,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>201</v>
@@ -8902,7 +8910,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9447,8 +9457,8 @@
       <c r="A34" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>233</v>
+      <c r="B34" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>208</v>
@@ -9464,8 +9474,8 @@
       <c r="A35" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>258</v>
+      <c r="B35" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>208</v>
